--- a/biology/Zoologie/Gerboise_de_Sibérie/Gerboise_de_Sibérie.xlsx
+++ b/biology/Zoologie/Gerboise_de_Sibérie/Gerboise_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerboise_de_Sib%C3%A9rie</t>
+          <t>Gerboise_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactaga sibirica
-Le Gerboise de Sibérie (Allactaga sibirica)[1] est une espèce de mammifère rongeur. C'est une gerboise de la famille des Dipodidés.
+Le Gerboise de Sibérie (Allactaga sibirica) est une espèce de mammifère rongeur. C'est une gerboise de la famille des Dipodidés.
 L'espèce n'est pas considérée comme étant en danger par l'Union internationale pour la conservation de la nature (UICN). Elle se rencontre au Kazakhstan, Turkménistan, Mongolie, Chine, etc.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gerboise_de_Sib%C3%A9rie</t>
+          <t>Gerboise_de_Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammal Species of the World classe cette espèce dans le sous-genre Allactaga (Orientallactaga)[2].
-Elle admet de nombreux synonymes dans le genre Allactaga et a été classée un temps dans le genre Dipus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammal Species of the World classe cette espèce dans le sous-genre Allactaga (Orientallactaga).
+Elle admet de nombreux synonymes dans le genre Allactaga et a été classée un temps dans le genre Dipus.
 </t>
         </is>
       </c>
